--- a/inst/extdata/examples/TestProject/Data/TestProject_TimeValuesData.xlsx
+++ b/inst/extdata/examples/TestProject/Data/TestProject_TimeValuesData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esqlabs.sharepoint.com/sites/QualityManagement/Freigegebene Dokumente/Level 4 Work Instructions/Data Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{32D88237-F3CB-4778-A0D6-D5EEF8576A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AA9A54A-96BA-444D-A6E5-1BA1212748E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6860AEEE-550D-47C5-B8DE-F5723AFA1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{BD100792-66DE-42FA-AA26-60DC91D43834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{BD100792-66DE-42FA-AA26-60DC91D43834}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Study Id 1&gt;" sheetId="5" r:id="rId1"/>
     <sheet name="Laskin 1982.Group A" sheetId="8" r:id="rId2"/>
-    <sheet name="MetaInfo" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
   <si>
     <t>Study Id</t>
   </si>
@@ -134,202 +133,7 @@
     <t>LLOQ</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Compound/Analyte</t>
-  </si>
-  <si>
-    <t>Data type</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Comment PK</t>
-  </si>
-  <si>
-    <t>Dose free API</t>
-  </si>
-  <si>
-    <t>Dose Unit</t>
-  </si>
-  <si>
-    <t>Times of Administration</t>
-  </si>
-  <si>
-    <t>Times Unit</t>
-  </si>
-  <si>
-    <t>Comment Regimen</t>
-  </si>
-  <si>
-    <t>Administered form</t>
-  </si>
-  <si>
-    <t>Formulation type</t>
-  </si>
-  <si>
-    <t>Infusion duration [min]</t>
-  </si>
-  <si>
-    <t>Water volume ingested for drug intake [mL]</t>
-  </si>
-  <si>
-    <t>Comment on administration/formulation</t>
-  </si>
-  <si>
-    <t>Fasted/Fed state</t>
-  </si>
-  <si>
-    <t>Duration of fasting before drug administration [h]</t>
-  </si>
-  <si>
-    <t>Duration of fasting after drug administration [h]</t>
-  </si>
-  <si>
-    <t>Comment on food intake</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N female</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>AvgUnit</t>
-  </si>
-  <si>
-    <t>AvgType</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>VarUnit</t>
-  </si>
-  <si>
-    <t>VarType</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Ethnicity or country</t>
-  </si>
-  <si>
-    <t>Comment Population</t>
-  </si>
-  <si>
     <t>Plasma</t>
-  </si>
-  <si>
-    <t>Aggregated</t>
-  </si>
-  <si>
-    <t>PK properties</t>
-  </si>
-  <si>
-    <t>DOSING REGIMEN</t>
-  </si>
-  <si>
-    <t>Details on administration/formulation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSA </t>
-  </si>
-  <si>
-    <t>Lam 2003</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/14551182</t>
-  </si>
-  <si>
-    <t>Midazolam before Ketoconazole</t>
-  </si>
-  <si>
-    <t>Midazolam</t>
-  </si>
-  <si>
-    <t>Fig.1; Table I+II</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>midazolam hydrochloride</t>
-  </si>
-  <si>
-    <t>midazolam oral solution</t>
-  </si>
-  <si>
-    <t>The midazolam oral formulation was prepared as a 1:1 mixture of injectable midazolam hydrochloride and flavored, dye-free syrup.</t>
-  </si>
-  <si>
-    <t>fasted</t>
-  </si>
-  <si>
-    <t>overnight fast</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>arith. Mean</t>
-  </si>
-  <si>
-    <t>arith. SD</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>21 Caucasian, 18 Hispanic and 1 African American</t>
-  </si>
-  <si>
-    <t>Demographic data displayed are of all participants (N=40). However, there were no significant differences in these demographic parameters among the four parallel groups. The subjects did not receive any medications, including known enzyme inhibitors or inducers of CYP3A4. Oral or intradermal contraceptives were also not allowed. Subjects were instructed to refrain from tobacco, alcohol, and prescription and nonprescription medications during the entire study. Caffeine was restricted from 48 hours prior to and until 24 hours after oral midazolam administration.</t>
-  </si>
-  <si>
-    <t>See https://github.com/Open-Systems-Pharmacology/Database-for-observed-data/raw/master/obsDataPK_OSP_DISL.docx for specifications</t>
   </si>
   <si>
     <t>MexicanAmericanWhite_NHANES_1997</t>
@@ -357,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,91 +190,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -478,143 +210,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,34 +539,34 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" customWidth="1"/>
-    <col min="16" max="16" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +681,7 @@
         <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="S2">
         <v>153</v>
@@ -1101,31 +707,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" customWidth="1"/>
-    <col min="16" max="16" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,18 +796,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1210,43 +816,43 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>225.21</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="4">
         <v>0.27272730000000001</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="4">
         <v>2.3702990000000002</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N2" s="4"/>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1255,45 +861,45 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>225.21</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="4">
         <v>0.48484850000000002</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="4">
         <v>2.9463979999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="43">
+        <v>38</v>
+      </c>
+      <c r="N3" s="4">
         <v>1.2268330000000001</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1302,45 +908,45 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>225.21</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="4">
         <v>0.75757580000000002</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="4">
         <v>3.0774360000000001</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="43">
+        <v>38</v>
+      </c>
+      <c r="N4" s="4">
         <v>1.2813950000000001</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1349,45 +955,45 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>225.21</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="4">
         <v>1.1515150000000001</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="4">
         <v>3.0774360000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="43">
+        <v>38</v>
+      </c>
+      <c r="N5" s="4">
         <v>1.8176890000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -1396,43 +1002,43 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>225.21</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="4">
         <v>1.606061</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="4">
         <v>2.1727400000000001</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1441,43 +1047,43 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>225.21</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="4">
         <v>1.969697</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="4">
         <v>1.9347019999999999</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N7" s="4"/>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1486,43 +1092,43 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>225.21</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="4">
         <v>3</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="4">
         <v>1.307782</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N8" s="4"/>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1531,43 +1137,43 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>225.21</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="4">
         <v>5.030303</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="4">
         <v>0.73209409999999997</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -1576,43 +1182,43 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>225.21</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="4">
         <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="4">
         <v>0.43430550000000001</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N10" s="4"/>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1621,43 +1227,43 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>225.21</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="4">
         <v>10.9697</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="4">
         <v>0.16434180000000001</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N11" s="4"/>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1666,29 +1272,29 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>225.21</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="4">
         <v>19.0303</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="4">
         <v>2.6426959999999999E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="N12" s="4"/>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1696,570 +1302,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9560D5D-E045-4966-A63D-621254C6CE2F}">
-  <dimension ref="A1:BQ8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.53125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.53125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.06640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:69" s="20" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="19"/>
-    </row>
-    <row r="2" spans="1:69" s="20" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ2" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29">
-        <v>10</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="29">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="27">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="36">
-        <f>23/(23+17)*10</f>
-        <v>5.75</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE3" s="19">
-        <v>8.4</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="19">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>50</v>
-      </c>
-      <c r="AJ3" s="27">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" s="27">
-        <v>13.8</v>
-      </c>
-      <c r="AN3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="19">
-        <v>168.8</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU3" s="19">
-        <v>11.5</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ3" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="AR1:AY1"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="BH1:BO1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AB1:AI1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
@@ -2268,15 +1320,6 @@
     <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2517,20 +1560,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14CB4EF-58DD-43B7-9F24-675C988FD4B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAB5050-D493-406E-92F7-9DBD52364DAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
     <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14CB4EF-58DD-43B7-9F24-675C988FD4B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
